--- a/results/I3_N5_M2_T15_C150_DepCentral_s3_P6_res.xlsx
+++ b/results/I3_N5_M2_T15_C150_DepCentral_s3_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>894.4983105104358</v>
+        <v>455.9482073939506</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.001000165939331055</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.43831051044998</v>
+        <v>25.94820739395058</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.06951674225463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.06951674225463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>461.3199999999858</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>406.7400000000001</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -733,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -824,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -931,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.624823803610445</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -969,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,76 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>188.139999999999</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8">
@@ -1179,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>202.874999999999</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9">
@@ -1190,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>194.5699999999991</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10">
@@ -1201,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>199.2949999999988</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11">
@@ -1212,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>195.7799999999989</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -1223,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>134.1300000000001</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
@@ -1234,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>149.0750000000001</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
@@ -1245,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>137.7750000000001</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
@@ -1256,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>146.0250000000001</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
@@ -1267,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>140.6050000000001</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>81.95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
@@ -1289,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>71.19000000000058</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19">
@@ -1300,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>77.00500000000058</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20">
@@ -1311,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>79.91000000000058</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21">
@@ -1322,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>84.56000000000058</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>55.62000000000029</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1344,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>59.11000000000029</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1355,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>59.63000000000029</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1366,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>59.33000000000029</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1377,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>57.65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1388,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>36.35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
@@ -1399,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>32.46500000000073</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
@@ -1410,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>34.61000000000072</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
@@ -1421,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>41.73500000000072</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31">
@@ -1432,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.29500000000073</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
@@ -1443,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>188.1399999999986</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33">
@@ -1454,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>202.8749999999986</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34">
@@ -1465,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>194.5699999999989</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35">
@@ -1476,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>199.2949999999983</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36">
@@ -1487,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>195.7799999999985</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37">
@@ -1498,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>81.95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38">
@@ -1509,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>71.19000000000058</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
@@ -1520,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>77.00500000000058</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
@@ -1531,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>79.91000000000058</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41">
@@ -1542,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>84.56000000000058</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>38.13999999999862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1600,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>52.87499999999864</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1611,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>44.56999999999886</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1622,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>49.29499999999831</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1633,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>45.77999999999847</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1735,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1746,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1757,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1768,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1779,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1790,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1801,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.895</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1812,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.985</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1823,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1834,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.585</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1900,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>11.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1911,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>17.095</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1922,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>21.56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1933,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>11.26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1944,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>16.935</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1955,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>9.625</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -1966,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>12.98</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -1977,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -1988,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>13.585</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -1999,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>8.205</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2013,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2054,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2065,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2076,20 +1951,9 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
